--- a/src/main/webapp/WEB-INF/file/request/2/Request230908.xlsx
+++ b/src/main/webapp/WEB-INF/file/request/2/Request230908.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="29">
   <si>
     <t>요구사항ID</t>
   </si>
@@ -56,28 +56,31 @@
     <t>대기</t>
   </si>
   <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>BUSUNG</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>회원가입</t>
+  </si>
+  <si>
+    <t>테스트</t>
+  </si>
+  <si>
     <t>true</t>
   </si>
   <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>회원가입</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
     <t>6</t>
   </si>
   <si>
     <t>아이디 찾기</t>
   </si>
   <si>
-    <t>test1</t>
+    <t>BUSUNG KIM</t>
   </si>
   <si>
     <t>4</t>
@@ -86,10 +89,16 @@
     <t>집에 가고 싶어</t>
   </si>
   <si>
+    <t>완료</t>
+  </si>
+  <si>
     <t>5</t>
   </si>
   <si>
     <t>얼마 안남았나?</t>
+  </si>
+  <si>
+    <t>구현</t>
   </si>
 </sst>
 </file>
@@ -213,10 +222,10 @@
         <v>12</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s" s="0">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s" s="0">
         <v>15</v>
@@ -225,10 +234,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s" s="0">
         <v>11</v>
@@ -240,22 +249,24 @@
         <v>12</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G4" t="s" s="0">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="I4" s="0"/>
+        <v>22</v>
+      </c>
+      <c r="I4" t="s" s="0">
+        <v>11</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s" s="0">
         <v>11</v>
@@ -267,22 +278,22 @@
         <v>12</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="G5" t="s" s="0">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H5" t="s" s="0">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I5" s="0"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s" s="0">
         <v>11</v>
@@ -294,10 +305,10 @@
         <v>12</v>
       </c>
       <c r="F6" t="s" s="0">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="G6" t="s" s="0">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H6" t="s" s="0">
         <v>15</v>
